--- a/img/族群整理-V3.xlsx
+++ b/img/族群整理-V3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ampps\www\digiasia2018\img\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4760EE51-BC1E-4114-8034-FECDDD112EDD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01FB8CD-91B7-455D-AF1D-3F304C031FFC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6996" activeTab="1" xr2:uid="{32696C77-DE72-4D15-9C50-1ABB18CB0959}"/>
   </bookViews>
@@ -2028,7 +2028,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
